--- a/data/trans_orig/P79_n_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R2-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18356</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8513</v>
+        <v>8653</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34352</v>
+        <v>33358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04501262831124945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0208760431277976</v>
+        <v>0.02121796289160253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08423993702018928</v>
+        <v>0.08180187775089247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>24807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13937</v>
+        <v>13271</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41644</v>
+        <v>42467</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06843043919528172</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03844496556807015</v>
+        <v>0.03660831769227158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1148770347307559</v>
+        <v>0.1171453664879116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>43163</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28783</v>
+        <v>26953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66785</v>
+        <v>66438</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05603324541526534</v>
+        <v>0.05603324541526533</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03736543764367725</v>
+        <v>0.0349898348955868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08669951701249731</v>
+        <v>0.08624853572821946</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>389437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>373441</v>
+        <v>374435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399280</v>
+        <v>399140</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9549873716887508</v>
+        <v>0.9549873716887507</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9157600629798104</v>
+        <v>0.9181981222491078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9791239568722023</v>
+        <v>0.9787820371083975</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -833,19 +833,19 @@
         <v>337705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>320868</v>
+        <v>320045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>348575</v>
+        <v>349241</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9315695608047183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8851229652692441</v>
+        <v>0.8828546335120884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9615550344319298</v>
+        <v>0.9633916823077285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -854,19 +854,19 @@
         <v>727142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>703520</v>
+        <v>703867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>741522</v>
+        <v>743352</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9439667545847348</v>
+        <v>0.9439667545847346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9133004829875028</v>
+        <v>0.9137514642717803</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9626345623563227</v>
+        <v>0.9650101651044134</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>17104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9027</v>
+        <v>9167</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28827</v>
+        <v>29141</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03586592798372547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01892834537578489</v>
+        <v>0.01922239132681751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0604485532172195</v>
+        <v>0.06110593768194578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -979,19 +979,19 @@
         <v>15991</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9654</v>
+        <v>9195</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27164</v>
+        <v>25446</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03187235184766769</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01924170136227866</v>
+        <v>0.0183272747486518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05414008234350931</v>
+        <v>0.05071659760326633</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1000,19 +1000,19 @@
         <v>33096</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22028</v>
+        <v>22859</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47370</v>
+        <v>48090</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03381845144780076</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02250897273506541</v>
+        <v>0.02335794314508334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04840425568597313</v>
+        <v>0.04914023926125258</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>459786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448063</v>
+        <v>447749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467863</v>
+        <v>467723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9641340720162744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9395514467827804</v>
+        <v>0.9388940623180542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9810716546242151</v>
+        <v>0.9807776086731824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -1050,19 +1050,19 @@
         <v>485742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474569</v>
+        <v>476287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492079</v>
+        <v>492538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9681276481523322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9458599176564907</v>
+        <v>0.9492834023967347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9807582986377213</v>
+        <v>0.9816727252513484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>736</v>
@@ -1071,19 +1071,19 @@
         <v>945527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>931253</v>
+        <v>930533</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>956595</v>
+        <v>955764</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9661815485521992</v>
+        <v>0.9661815485521993</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9515957443140267</v>
+        <v>0.9508597607387473</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9774910272649344</v>
+        <v>0.9766420568549165</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>24626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15392</v>
+        <v>15513</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35835</v>
+        <v>36089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03966508268513055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02479198930910514</v>
+        <v>0.02498775109431028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05772123473335655</v>
+        <v>0.05812914638745671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1196,19 +1196,19 @@
         <v>26863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18620</v>
+        <v>18753</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37227</v>
+        <v>37985</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04310578656859081</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02987804641916974</v>
+        <v>0.03009235098489377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05973649012691996</v>
+        <v>0.06095233586064538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1217,19 +1217,19 @@
         <v>51489</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40058</v>
+        <v>38451</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66127</v>
+        <v>65303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0413886924392939</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03220054322699229</v>
+        <v>0.03090817774805269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05315566706615103</v>
+        <v>0.05249333081125405</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>596211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>585002</v>
+        <v>584748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>605445</v>
+        <v>605324</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9603349173148695</v>
+        <v>0.9603349173148696</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9422787652666436</v>
+        <v>0.9418708536125434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9752080106908952</v>
+        <v>0.9750122489056898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>814</v>
@@ -1267,19 +1267,19 @@
         <v>596330</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>585966</v>
+        <v>585208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>604573</v>
+        <v>604440</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9568942134314091</v>
+        <v>0.9568942134314093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9402635098730801</v>
+        <v>0.9390476641393546</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9701219535808301</v>
+        <v>0.9699076490151062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1338</v>
@@ -1288,19 +1288,19 @@
         <v>1192540</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1177902</v>
+        <v>1178726</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1203971</v>
+        <v>1205578</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9586113075607062</v>
+        <v>0.9586113075607061</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9468443329338492</v>
+        <v>0.947506669188746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9677994567730077</v>
+        <v>0.9690918222519475</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>29727</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21082</v>
+        <v>20482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44516</v>
+        <v>42743</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0424300660864079</v>
+        <v>0.04243006608640789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03009002433324125</v>
+        <v>0.02923425433884655</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06353824480044548</v>
+        <v>0.06100826921544016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1413,19 +1413,19 @@
         <v>30332</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22210</v>
+        <v>21974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40404</v>
+        <v>39546</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04116239094775716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03014056264933758</v>
+        <v>0.02981981071005991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05483056466569518</v>
+        <v>0.05366579945962332</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -1434,19 +1434,19 @@
         <v>60059</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45321</v>
+        <v>46899</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74758</v>
+        <v>75212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04178023635359289</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03152785570329197</v>
+        <v>0.03262503538266483</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05200535457803231</v>
+        <v>0.0523210548084035</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>670890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>656101</v>
+        <v>657874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>679535</v>
+        <v>680135</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9575699339135921</v>
+        <v>0.957569933913592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9364617551995551</v>
+        <v>0.9389917307845599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.969909975666759</v>
+        <v>0.9707657456611536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1098</v>
@@ -1484,19 +1484,19 @@
         <v>706554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>696482</v>
+        <v>697340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>714676</v>
+        <v>714912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9588376090522429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9451694353343045</v>
+        <v>0.9463342005403765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9698594373506624</v>
+        <v>0.970180189289939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1737</v>
@@ -1505,19 +1505,19 @@
         <v>1377445</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1362746</v>
+        <v>1362292</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1392183</v>
+        <v>1390605</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.958219763646407</v>
+        <v>0.9582197636464072</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9479946454219677</v>
+        <v>0.9476789451915965</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.968472144296708</v>
+        <v>0.967374964617335</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>31187</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22347</v>
+        <v>21307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42660</v>
+        <v>41937</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05118079070486821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03667404983447131</v>
+        <v>0.03496766265333286</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0700091738952921</v>
+        <v>0.06882313107566215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1630,19 +1630,19 @@
         <v>23083</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15885</v>
+        <v>16501</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31646</v>
+        <v>31684</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03791243132974988</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0260897782997346</v>
+        <v>0.02710153522149887</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05197647615386752</v>
+        <v>0.05203945105294547</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1651,19 +1651,19 @@
         <v>54270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43338</v>
+        <v>42943</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68848</v>
+        <v>69025</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04454928518059112</v>
+        <v>0.04454928518059113</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03557521816570953</v>
+        <v>0.03525092486162819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05651611036434161</v>
+        <v>0.05666099788920619</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>578159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>566686</v>
+        <v>567409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>586999</v>
+        <v>588039</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9488192092951317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.929990826104708</v>
+        <v>0.9311768689243376</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9633259501655288</v>
+        <v>0.9650323373466669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>968</v>
@@ -1701,19 +1701,19 @@
         <v>585772</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>577209</v>
+        <v>577171</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>592970</v>
+        <v>592354</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9620875686702501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9480235238461324</v>
+        <v>0.9479605489470545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9739102217002652</v>
+        <v>0.9728984647785011</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1597</v>
@@ -1722,19 +1722,19 @@
         <v>1163932</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1149354</v>
+        <v>1149177</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1174864</v>
+        <v>1175259</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9554507148194087</v>
+        <v>0.9554507148194089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9434838896356588</v>
+        <v>0.943339002110794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9644247818342906</v>
+        <v>0.9647490751383718</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>14445</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9334</v>
+        <v>9136</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22190</v>
+        <v>20991</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03548351804844366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02293005388995295</v>
+        <v>0.02244154435247731</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0545092405474815</v>
+        <v>0.05156538326508622</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1847,19 +1847,19 @@
         <v>16474</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11195</v>
+        <v>11126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23021</v>
+        <v>23045</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03751166029029614</v>
+        <v>0.03751166029029613</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02549186183736115</v>
+        <v>0.02533477846234273</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05241955342937855</v>
+        <v>0.05247542341051274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -1868,19 +1868,19 @@
         <v>30918</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22985</v>
+        <v>23325</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40547</v>
+        <v>40325</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03653603892742233</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02716123198535359</v>
+        <v>0.02756231673245138</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04791407653560457</v>
+        <v>0.04765126547524242</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>392635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>384890</v>
+        <v>386089</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>397746</v>
+        <v>397944</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9645164819515563</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9454907594525186</v>
+        <v>0.9484346167349138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.977069946110047</v>
+        <v>0.9775584556475228</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>799</v>
@@ -1918,19 +1918,19 @@
         <v>422692</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>416145</v>
+        <v>416121</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>427971</v>
+        <v>428040</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.962488339709704</v>
+        <v>0.9624883397097039</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9475804465706215</v>
+        <v>0.9475245765894872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9745081381626388</v>
+        <v>0.9746652215376572</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1349</v>
@@ -1939,19 +1939,19 @@
         <v>815328</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>805699</v>
+        <v>805921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>823261</v>
+        <v>822921</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9634639610725777</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9520859234643954</v>
+        <v>0.9523487345247575</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9728387680146465</v>
+        <v>0.9724376832675486</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>11239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6288</v>
+        <v>6264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17384</v>
+        <v>18592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03623091770221548</v>
+        <v>0.03623091770221549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02027238533609263</v>
+        <v>0.02019194632311319</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05604287003549234</v>
+        <v>0.05993574975772228</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2064,19 +2064,19 @@
         <v>13643</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8944</v>
+        <v>8497</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20844</v>
+        <v>19988</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0293651439290759</v>
+        <v>0.02936514392907589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01925066215597843</v>
+        <v>0.01828853199383496</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04486369108708187</v>
+        <v>0.04302204185859849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2085,19 +2085,19 @@
         <v>24882</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17948</v>
+        <v>18283</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33555</v>
+        <v>35043</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03211389408600983</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02316415800384639</v>
+        <v>0.02359686126453938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04330794692619366</v>
+        <v>0.04522808441344079</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>298959</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>292814</v>
+        <v>291606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>303910</v>
+        <v>303934</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9637690822977845</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9439571299645079</v>
+        <v>0.9400642502422779</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9797276146639076</v>
+        <v>0.9798080536768868</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>858</v>
@@ -2135,19 +2135,19 @@
         <v>450966</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>443765</v>
+        <v>444621</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>455665</v>
+        <v>456112</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9706348560709241</v>
+        <v>0.970634856070924</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9551363089129182</v>
+        <v>0.9569779581414015</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9807493378440216</v>
+        <v>0.981711468006165</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1301</v>
@@ -2156,19 +2156,19 @@
         <v>749925</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>741252</v>
+        <v>739764</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>756859</v>
+        <v>756524</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.96788610591399</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9566920530738062</v>
+        <v>0.9547719155865595</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9768358419961537</v>
+        <v>0.9764031387354608</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>146683</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>122395</v>
+        <v>122679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>173301</v>
+        <v>172917</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04152075883530864</v>
+        <v>0.04152075883530863</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03464574535480461</v>
+        <v>0.03472594801607191</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04905539762495405</v>
+        <v>0.0489466009003074</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>190</v>
@@ -2281,19 +2281,19 @@
         <v>151194</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>131020</v>
+        <v>128688</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>177028</v>
+        <v>174693</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04045910578292512</v>
+        <v>0.04045910578292511</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03506075438050197</v>
+        <v>0.03443670564577304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04737220145009059</v>
+        <v>0.04674736615273024</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>327</v>
@@ -2302,19 +2302,19 @@
         <v>297877</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>265526</v>
+        <v>265580</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>335998</v>
+        <v>335308</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04097502241913239</v>
+        <v>0.04097502241913237</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03652493271258254</v>
+        <v>0.03653239970017463</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04621879951915979</v>
+        <v>0.0461239848764024</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3386079</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3359461</v>
+        <v>3359845</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3410367</v>
+        <v>3410083</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9584792411646914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9509446023750464</v>
+        <v>0.9510533990996927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9653542546451955</v>
+        <v>0.9652740519839287</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5177</v>
@@ -2352,19 +2352,19 @@
         <v>3585760</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3559926</v>
+        <v>3562261</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3605934</v>
+        <v>3608266</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.959540894217075</v>
+        <v>0.9595408942170749</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9526277985499096</v>
+        <v>0.9532526338472701</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9649392456194982</v>
+        <v>0.9655632943542272</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8416</v>
@@ -2373,19 +2373,19 @@
         <v>6971839</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6933718</v>
+        <v>6934408</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7004190</v>
+        <v>7004136</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9590249775808676</v>
+        <v>0.9590249775808677</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9537812004808403</v>
+        <v>0.9538760151235977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9634750672874175</v>
+        <v>0.9634676002998255</v>
       </c>
     </row>
     <row r="27">
